--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/68.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/68.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1807651965600192</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.565402039480967</v>
+        <v>-1.566288212246259</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01086320710581692</v>
+        <v>0.0213493224919221</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1548400818699917</v>
+        <v>-0.1236099684842647</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1658004054750281</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.575076748010042</v>
+        <v>-1.561149826824773</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02083461823925678</v>
+        <v>0.03365185594400828</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1195033525967912</v>
+        <v>-0.08230298468397079</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1537497892467935</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.645159162376394</v>
+        <v>-1.644807369102783</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03678392571507619</v>
+        <v>-0.02629151425248581</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1264085744819373</v>
+        <v>-0.08863054155159955</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1434580610166657</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.779216796918452</v>
+        <v>-1.789974430602982</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08237066750618671</v>
+        <v>-0.08997160584294774</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1338080383711719</v>
+        <v>-0.09484162100425207</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1295157539518347</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.813990814355788</v>
+        <v>-1.862564257429566</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1032248468442995</v>
+        <v>-0.1243906819684299</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1311998886871767</v>
+        <v>-0.09439145153556007</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1088138215719547</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.636448540559116</v>
+        <v>-1.681507985944591</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.09347065034959917</v>
+        <v>-0.1463309345002402</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1250501959802549</v>
+        <v>-0.09772522403447492</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08041442765674821</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.325693093478964</v>
+        <v>-1.331807370755656</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1024567255131048</v>
+        <v>-0.1504344023494711</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.08769557419354694</v>
+        <v>-0.05042909747763186</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.04552852446096287</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.836879881339914</v>
+        <v>-0.7992214738627951</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03442604507136777</v>
+        <v>-0.1020238702547471</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08962217359801898</v>
+        <v>-0.06430722407014003</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.006632973157975905</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3199704278856468</v>
+        <v>-0.2497691750756362</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03287406221776529</v>
+        <v>-0.1269185566772388</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02026459503702548</v>
+        <v>0.02237086090164625</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.03426592616895116</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2368577245039271</v>
+        <v>0.3440090761864714</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06392473742366396</v>
+        <v>-0.1401875378698036</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05324052390859534</v>
+        <v>0.093211165474905</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07652626163366814</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8751885869944506</v>
+        <v>1.013127752689636</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1265801425661591</v>
+        <v>-0.2491285492932668</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1284817859450108</v>
+        <v>0.1510484980870988</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1201876488085466</v>
       </c>
       <c r="E13" t="n">
-        <v>1.538270900167428</v>
+        <v>1.723263793474776</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2797085927818965</v>
+        <v>-0.415656624288637</v>
       </c>
       <c r="G13" t="n">
-        <v>0.231303011024857</v>
+        <v>0.2597360924320326</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1652573482351238</v>
       </c>
       <c r="E14" t="n">
-        <v>2.195483696037074</v>
+        <v>2.395991695823084</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5161294128395024</v>
+        <v>-0.6579390915539666</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3429686495472916</v>
+        <v>0.3720486528133218</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2122232104686765</v>
       </c>
       <c r="E15" t="n">
-        <v>2.889259382075414</v>
+        <v>3.113745989155318</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.809449450113007</v>
+        <v>-0.962416563368811</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4831681067006652</v>
+        <v>0.5213050159906596</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.262772182006373</v>
       </c>
       <c r="E16" t="n">
-        <v>3.560136237937072</v>
+        <v>3.793188657075095</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.046686399085007</v>
+        <v>-1.200653801492398</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6446168219915981</v>
+        <v>0.6819824619121551</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3181493681143976</v>
       </c>
       <c r="E17" t="n">
-        <v>4.210735005459013</v>
+        <v>4.46040749249885</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.326872820810379</v>
+        <v>-1.508568931068163</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8156639058842224</v>
+        <v>0.8518852339035939</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3787012395594289</v>
       </c>
       <c r="E18" t="n">
-        <v>4.856849392504369</v>
+        <v>5.146522427473819</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.542906945208898</v>
+        <v>-1.715461152410168</v>
       </c>
       <c r="G18" t="n">
-        <v>0.971520131237174</v>
+        <v>1.007007966346019</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4439239997842917</v>
       </c>
       <c r="E19" t="n">
-        <v>5.341703946553348</v>
+        <v>5.62258136267297</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.764757857270184</v>
+        <v>-1.959795353600113</v>
       </c>
       <c r="G19" t="n">
-        <v>1.139902400757436</v>
+        <v>1.174902289938679</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5123565496409676</v>
       </c>
       <c r="E20" t="n">
-        <v>5.76056145286531</v>
+        <v>6.069999445940933</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.916578297596121</v>
+        <v>-2.110012655451005</v>
       </c>
       <c r="G20" t="n">
-        <v>1.268008669001857</v>
+        <v>1.302970781724188</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5821920224537465</v>
       </c>
       <c r="E21" t="n">
-        <v>6.062637758510609</v>
+        <v>6.357084793474965</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.118365974927748</v>
+        <v>-2.30107654050921</v>
       </c>
       <c r="G21" t="n">
-        <v>1.386683414671444</v>
+        <v>1.417446044378144</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6507895795922553</v>
       </c>
       <c r="E22" t="n">
-        <v>6.386213591333756</v>
+        <v>6.687214841919208</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.225528344744141</v>
+        <v>-2.395409080467882</v>
       </c>
       <c r="G22" t="n">
-        <v>1.485542833622976</v>
+        <v>1.510352523012917</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7164848452896078</v>
       </c>
       <c r="E23" t="n">
-        <v>6.517036616581541</v>
+        <v>6.816068769246246</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.318861382560787</v>
+        <v>-2.483186617795897</v>
       </c>
       <c r="G23" t="n">
-        <v>1.588748119368419</v>
+        <v>1.609767570714269</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7765963290656841</v>
       </c>
       <c r="E24" t="n">
-        <v>6.660324299250907</v>
+        <v>6.941083663936432</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.37998998915562</v>
+        <v>-2.529195196711516</v>
       </c>
       <c r="G24" t="n">
-        <v>1.595939812733642</v>
+        <v>1.619666576968129</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8281605424936773</v>
       </c>
       <c r="E25" t="n">
-        <v>6.74138313595965</v>
+        <v>7.028279601199126</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.387406767255189</v>
+        <v>-2.543596684661856</v>
       </c>
       <c r="G25" t="n">
-        <v>1.644429045784431</v>
+        <v>1.666693546255229</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8689715894423962</v>
       </c>
       <c r="E26" t="n">
-        <v>6.74968451280539</v>
+        <v>7.001606273169565</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.403666384778225</v>
+        <v>-2.581407771993741</v>
       </c>
       <c r="G26" t="n">
-        <v>1.682828816267683</v>
+        <v>1.676189603614036</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8981085977973071</v>
       </c>
       <c r="E27" t="n">
-        <v>6.69629378421087</v>
+        <v>6.927740703845166</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.323708574444832</v>
+        <v>-2.472514768153478</v>
       </c>
       <c r="G27" t="n">
-        <v>1.641462019740779</v>
+        <v>1.6451656867332</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9154104659066149</v>
       </c>
       <c r="E28" t="n">
-        <v>6.588171262730484</v>
+        <v>6.785367526285276</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.272243658245224</v>
+        <v>-2.384959167521567</v>
       </c>
       <c r="G28" t="n">
-        <v>1.598111959121037</v>
+        <v>1.574926657464278</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9207113652899822</v>
       </c>
       <c r="E29" t="n">
-        <v>6.444916634462665</v>
+        <v>6.610719086643115</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.191005383356653</v>
+        <v>-2.307394653262111</v>
       </c>
       <c r="G29" t="n">
-        <v>1.552304854652944</v>
+        <v>1.517056270450537</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9153528361089301</v>
       </c>
       <c r="E30" t="n">
-        <v>6.278073755643034</v>
+        <v>6.404793313041589</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.155001269976021</v>
+        <v>-2.260102461753071</v>
       </c>
       <c r="G30" t="n">
-        <v>1.48334550292964</v>
+        <v>1.45195483959354</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9005947922075913</v>
       </c>
       <c r="E31" t="n">
-        <v>6.015503755923261</v>
+        <v>6.110061380616278</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.996722629195388</v>
+        <v>-2.05495740163571</v>
       </c>
       <c r="G31" t="n">
-        <v>1.40596829694562</v>
+        <v>1.374108575911372</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8785297336403601</v>
       </c>
       <c r="E32" t="n">
-        <v>5.773051294592831</v>
+        <v>5.834013055160806</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.882740034526399</v>
+        <v>-1.923072700490607</v>
       </c>
       <c r="G32" t="n">
-        <v>1.331662002267257</v>
+        <v>1.279790202124792</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8504072091387949</v>
       </c>
       <c r="E33" t="n">
-        <v>5.434380618396411</v>
+        <v>5.459649921369771</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.823865423313268</v>
+        <v>-1.850067332616</v>
       </c>
       <c r="G33" t="n">
-        <v>1.256688323481462</v>
+        <v>1.19851415077731</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.817643649668868</v>
       </c>
       <c r="E34" t="n">
-        <v>5.144811468688966</v>
+        <v>5.131655816873135</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.745050350861939</v>
+        <v>-1.773240246314874</v>
       </c>
       <c r="G34" t="n">
-        <v>1.144769267880498</v>
+        <v>1.07713681427645</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.781986824322025</v>
       </c>
       <c r="E35" t="n">
-        <v>4.759356222150125</v>
+        <v>4.719040870396251</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.698882009005508</v>
+        <v>-1.719489067341577</v>
       </c>
       <c r="G35" t="n">
-        <v>1.068986543266355</v>
+        <v>1.001777500805937</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7451547447360526</v>
       </c>
       <c r="E36" t="n">
-        <v>4.308250212080955</v>
+        <v>4.248749141257546</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.62725548188116</v>
+        <v>-1.628978245809423</v>
       </c>
       <c r="G36" t="n">
-        <v>1.007217310889152</v>
+        <v>0.930877383506069</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7089026206621271</v>
       </c>
       <c r="E37" t="n">
-        <v>3.950009756149403</v>
+        <v>3.857331510287219</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.591781025934845</v>
+        <v>-1.593018991973748</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9261710663333799</v>
+        <v>0.8540542322527462</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6746544015934955</v>
       </c>
       <c r="E38" t="n">
-        <v>3.616682874869799</v>
+        <v>3.495022214927105</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.504400928434959</v>
+        <v>-1.505184789957366</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8356445046100134</v>
+        <v>0.7560148772634117</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6440794049268793</v>
       </c>
       <c r="E39" t="n">
-        <v>3.202624552858683</v>
+        <v>3.057063986578159</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.479503093974224</v>
+        <v>-1.476233069249722</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7672439296747707</v>
+        <v>0.6952482950664772</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6175634812627171</v>
       </c>
       <c r="E40" t="n">
-        <v>2.80620154108262</v>
+        <v>2.634461888776623</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.472344455010549</v>
+        <v>-1.465050450402442</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6971056376296121</v>
+        <v>0.6217620643503121</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.595047037226531</v>
       </c>
       <c r="E41" t="n">
-        <v>2.458755708284948</v>
+        <v>2.288676646151924</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.442490821346399</v>
+        <v>-1.426826970060776</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6454305898773105</v>
+        <v>0.5674615527036809</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5757677924281377</v>
       </c>
       <c r="E42" t="n">
-        <v>2.091088451835927</v>
+        <v>1.913808252222952</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.409960568166478</v>
+        <v>-1.392206419487767</v>
       </c>
       <c r="G42" t="n">
-        <v>0.579595666109788</v>
+        <v>0.5049462352629815</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5591870307084075</v>
       </c>
       <c r="E43" t="n">
-        <v>1.845439157670135</v>
+        <v>1.674190599329984</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.381296892958032</v>
+        <v>-1.372591780207679</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5039892316372308</v>
+        <v>0.4266120256532102</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5440425237703782</v>
       </c>
       <c r="E44" t="n">
-        <v>1.620000269021844</v>
+        <v>1.46732356229392</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.377823032757321</v>
+        <v>-1.367307798017472</v>
       </c>
       <c r="G44" t="n">
-        <v>0.431714995644467</v>
+        <v>0.3645390075855963</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5291407833624288</v>
       </c>
       <c r="E45" t="n">
-        <v>1.399790271894514</v>
+        <v>1.242748810143223</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.306412933262152</v>
+        <v>-1.294983193412827</v>
       </c>
       <c r="G45" t="n">
-        <v>0.376331558842381</v>
+        <v>0.2995304438567565</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5139724824994056</v>
       </c>
       <c r="E46" t="n">
-        <v>1.17589707002334</v>
+        <v>1.017064374512009</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.244211632636152</v>
+        <v>-1.236871194463966</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3329657580314258</v>
+        <v>0.2661061478159364</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4979913453091064</v>
       </c>
       <c r="E47" t="n">
-        <v>1.044989047743005</v>
+        <v>0.8875052866186285</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.193846955802333</v>
+        <v>-1.176971109793308</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2597880350630355</v>
+        <v>0.1877719382061651</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4812729070042909</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8665881465156636</v>
+        <v>0.7349025587894055</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.117775398679431</v>
+        <v>-1.101781003378335</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1931094370464957</v>
+        <v>0.1359379145226122</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4638035839833597</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7034961552620929</v>
+        <v>0.5650501554098483</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.054418768018397</v>
+        <v>-1.048450874519985</v>
       </c>
       <c r="G49" t="n">
-        <v>0.147772964295672</v>
+        <v>0.08732748199948304</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4464444088725918</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6205972902005495</v>
+        <v>0.486857607520994</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9934766826894375</v>
+        <v>-0.9966388871041306</v>
       </c>
       <c r="G50" t="n">
-        <v>0.12585474803156</v>
+        <v>0.08078113647399347</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4293730888673626</v>
       </c>
       <c r="E51" t="n">
-        <v>0.498897279779823</v>
+        <v>0.3681655476410731</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9723336708425659</v>
+        <v>-0.978228372451837</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1097430883059261</v>
+        <v>0.07765828253733291</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4126965348363759</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3470280448611261</v>
+        <v>0.2501471679450688</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9641330312205895</v>
+        <v>-0.9851296592891799</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0561099607667265</v>
+        <v>0.01606219226347309</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3965863478721073</v>
       </c>
       <c r="E53" t="n">
-        <v>0.284854289569749</v>
+        <v>0.1750302534192361</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9436613385289526</v>
+        <v>-0.9372283223801967</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05598089119877984</v>
+        <v>0.02610128621912888</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3810093322290914</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1666737859042507</v>
+        <v>0.09796785125947569</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9053867025658445</v>
+        <v>-0.9157232861354261</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01569544580821003</v>
+        <v>-0.009635243910881934</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3656217266660108</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1016683702136536</v>
+        <v>0.06234779854444112</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9115584315404645</v>
+        <v>-0.9325896880297236</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001272708599731832</v>
+        <v>-0.02644734214549458</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3501549731699518</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02141543129501673</v>
+        <v>-0.007582722976705838</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9174373929585226</v>
+        <v>-0.9480087793419851</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03375866096393627</v>
+        <v>-0.05542975622600414</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3346679442531316</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07829395798201794</v>
+        <v>-0.09828242680341537</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9417016847229334</v>
+        <v>-0.9826490051540101</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.07257554651433254</v>
+        <v>-0.08961745154065509</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3190790108534681</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1207704379894383</v>
+        <v>-0.1318232002592117</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9376540945525086</v>
+        <v>-0.9860874499244914</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09969589597434339</v>
+        <v>-0.1141438174887624</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3030836577881838</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1966727880568001</v>
+        <v>-0.1982893056943759</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9466826682322893</v>
+        <v>-0.9878039177762699</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1149135128390784</v>
+        <v>-0.1204304498592373</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2865589990698882</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2784289152362791</v>
+        <v>-0.2667119168973168</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9762144149861328</v>
+        <v>-1.033439454160141</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1251729694717163</v>
+        <v>-0.1264888494571237</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2693786450268679</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3590942471646967</v>
+        <v>-0.3339555877784035</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9574450239741827</v>
+        <v>-1.012342875877348</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1615800317474012</v>
+        <v>-0.161897983609904</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2514510149837884</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4816788563315943</v>
+        <v>-0.4638735520314409</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9846354172850915</v>
+        <v>-1.053973320607069</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1830921510782177</v>
+        <v>-0.1872491355775728</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2325534830686585</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5316885918535598</v>
+        <v>-0.526853205112924</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.007466564639558</v>
+        <v>-1.096554472886056</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2160709997077097</v>
+        <v>-0.2214462750069516</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.212849046929698</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6728969952636871</v>
+        <v>-0.6629523424553093</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.045361074984872</v>
+        <v>-1.140079249628262</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2634662894691948</v>
+        <v>-0.2740090695436668</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.19289832755047</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8329959891581046</v>
+        <v>-0.8201212997554256</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.105642859292446</v>
+        <v>-1.209346322089781</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3234112336848101</v>
+        <v>-0.3397196458006066</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1733960684625884</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9406667671506781</v>
+        <v>-0.9340983853574903</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.133282635062486</v>
+        <v>-1.240119969930331</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3573864364180855</v>
+        <v>-0.3681952257240573</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1551176870502463</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.02252284454436</v>
+        <v>-1.029986843217568</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.188721949543378</v>
+        <v>-1.307035457824626</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4128186678129318</v>
+        <v>-0.4439905424911706</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1392316356260926</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.115077529905522</v>
+        <v>-1.147407882657038</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.244543750670746</v>
+        <v>-1.377758497973348</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4372143901739712</v>
+        <v>-0.4452119813293</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1269776954998516</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.263811318734588</v>
+        <v>-1.323199847190824</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.300031072734838</v>
+        <v>-1.438578596820407</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4686207937012838</v>
+        <v>-0.4811279496391391</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1195908852116891</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.317844247130598</v>
+        <v>-1.386018163312373</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.382549812178587</v>
+        <v>-1.537800827179399</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5031107006872245</v>
+        <v>-0.5243442186335707</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1181634572104372</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.372458775591929</v>
+        <v>-1.448889996084047</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.414131718837925</v>
+        <v>-1.58924528113043</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5558670995758597</v>
+        <v>-0.5880778268741569</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1235322627525917</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.443543053128989</v>
+        <v>-1.521762359342905</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.462081063330108</v>
+        <v>-1.63195156792956</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5432466142612707</v>
+        <v>-0.5896077734600612</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1360742882142066</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.480637961760682</v>
+        <v>-1.598964062194901</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.469346735594032</v>
+        <v>-1.63665945912137</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5692871866040693</v>
+        <v>-0.6226181024719792</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1557530391822369</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.524736468472603</v>
+        <v>-1.654679617031581</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.502910332327087</v>
+        <v>-1.664674638451841</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.57587130858847</v>
+        <v>-0.6267593467801214</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1822189400211482</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.516397315167952</v>
+        <v>-1.66353583561758</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.495551005925446</v>
+        <v>-1.650759522409982</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.594935828185664</v>
+        <v>-0.6457986820713744</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2143279916218234</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.431531713214343</v>
+        <v>-1.571992457541853</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.554612925414011</v>
+        <v>-1.723036119431428</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5767322970478216</v>
+        <v>-0.629139263691528</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2510628160411019</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.379038175518966</v>
+        <v>-1.49278466731976</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.563899638229685</v>
+        <v>-1.728257140856782</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5526860069317109</v>
+        <v>-0.6047325231966395</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2911442750936374</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.209133042498845</v>
+        <v>-1.323699598261836</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.514452614543585</v>
+        <v>-1.668986663834644</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5130270211514188</v>
+        <v>-0.5625425146692958</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3332086471877715</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.08875442113045</v>
+        <v>-1.194667019764531</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.495551792935006</v>
+        <v>-1.635771712336957</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.514703351515604</v>
+        <v>-0.5802486557648072</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3756699825840908</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9108823903278659</v>
+        <v>-1.005647785544895</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.46421307222991</v>
+        <v>-1.594349038131247</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5011951194166016</v>
+        <v>-0.5662335895087459</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.4174152206916579</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7653202500282208</v>
+        <v>-0.8587744873172066</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.435420327453517</v>
+        <v>-1.550894305239938</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4707347013811906</v>
+        <v>-0.5294739469498897</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.457270122974857</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5636805304939962</v>
+        <v>-0.6292462969917764</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.432286455383007</v>
+        <v>-1.539844691008408</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4262072744587155</v>
+        <v>-0.4745280874635253</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.4938277174065843</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3578271617720497</v>
+        <v>-0.4127525590098372</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.349736235556832</v>
+        <v>-1.422505500563245</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3440434763268196</v>
+        <v>-0.389938725865705</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.5265807873783654</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1715766271867819</v>
+        <v>-0.2132031368686999</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.326832683322786</v>
+        <v>-1.370481020566014</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3219993385330034</v>
+        <v>-0.365157368819947</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.5546430069340204</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01897727567612197</v>
+        <v>-0.01666953536397471</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.20841292875085</v>
+        <v>-1.240267927727733</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2909769956712882</v>
+        <v>-0.3440576424989112</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.5774645556048426</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2764018068883642</v>
+        <v>0.2539027775684922</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.108344663114158</v>
+        <v>-1.124398084132304</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2265272087305102</v>
+        <v>-0.2857418080738421</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.5937492327477021</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5046078211519018</v>
+        <v>0.4912302326399673</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9850462362757511</v>
+        <v>-0.985336642803631</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.165206571802878</v>
+        <v>-0.2154697244033729</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6019115906139838</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6758012888228073</v>
+        <v>0.6575442410348405</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8379691025718541</v>
+        <v>-0.8340403508450875</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1412657409678945</v>
+        <v>-0.194683227887476</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.5999283272956049</v>
       </c>
       <c r="E89" t="n">
-        <v>0.851995415242085</v>
+        <v>0.8433524762470229</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7214255787925086</v>
+        <v>-0.7249812879875268</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.08749882180338436</v>
+        <v>-0.1287837693359801</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.5856194888848726</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9854045539061673</v>
+        <v>0.9839092357409317</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5442524124797818</v>
+        <v>-0.5217895855996997</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06915205492550354</v>
+        <v>-0.1113940060838501</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.5573577929666496</v>
       </c>
       <c r="E91" t="n">
-        <v>1.103053039108666</v>
+        <v>1.109245230331863</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3486459082375027</v>
+        <v>-0.3274485927309464</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08962532163626159</v>
+        <v>-0.1363689674815281</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.5148918906729063</v>
       </c>
       <c r="E92" t="n">
-        <v>1.16073296980873</v>
+        <v>1.172117850113098</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2088793063424869</v>
+        <v>-0.1882328975283858</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05196061808265743</v>
+        <v>-0.09810298862358709</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.4600334063773401</v>
       </c>
       <c r="E93" t="n">
-        <v>1.193834591929683</v>
+        <v>1.193895978675414</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1076446925369119</v>
+        <v>-0.08517714359946585</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05185988085889418</v>
+        <v>-0.09413646043790935</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.3961653207329649</v>
       </c>
       <c r="E94" t="n">
-        <v>1.173229107612736</v>
+        <v>1.187739989892007</v>
       </c>
       <c r="F94" t="n">
-        <v>0.03870130928514089</v>
+        <v>0.0712284144268196</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01814439128063345</v>
+        <v>-0.05297428639677507</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.3282162780861916</v>
       </c>
       <c r="E95" t="n">
-        <v>1.18024136279813</v>
+        <v>1.202576694129387</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1180208548648465</v>
+        <v>0.1574484598343074</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0537077793073012</v>
+        <v>-0.08886349638155205</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2608184526462959</v>
       </c>
       <c r="E96" t="n">
-        <v>1.099941203305854</v>
+        <v>1.120186237244024</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1965486688265378</v>
+        <v>0.2472289364941773</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08432402523572087</v>
+        <v>-0.1091101043388428</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1991425549229248</v>
       </c>
       <c r="E97" t="n">
-        <v>1.04809301345021</v>
+        <v>1.07368813838168</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2430577858227305</v>
+        <v>0.2976069924905271</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05132156631940935</v>
+        <v>-0.08000176872862919</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1447034196165503</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9337468203642001</v>
+        <v>0.9489046245023257</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2256884848191774</v>
+        <v>0.2768488283188136</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1090439955357482</v>
+        <v>-0.134656434677553</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.0979729734420849</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8969131989066427</v>
+        <v>0.9217811270040722</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2103874449410134</v>
+        <v>0.2476696618481415</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09657933811416802</v>
+        <v>-0.1202053651248914</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.05404464432444488</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8427055543881683</v>
+        <v>0.8603723450056472</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2019806088141464</v>
+        <v>0.2443311672918627</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09860037866591811</v>
+        <v>-0.1197111231208029</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01309760694632389</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7833398492091915</v>
+        <v>0.7993916962082159</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1821841703255477</v>
+        <v>0.2111744545016637</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08648987554663062</v>
+        <v>-0.1057448514575019</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.03183463918408521</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7716181288128654</v>
+        <v>0.7922566675313599</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1570706952451952</v>
+        <v>0.1773849860247019</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07182473939347211</v>
+        <v>-0.08837555045394885</v>
       </c>
     </row>
   </sheetData>
